--- a/data/reference/reference_region_mapping.xlsx
+++ b/data/reference/reference_region_mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team_project\dust\dd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team_project\dust\data\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FF3BED-9C76-4321-BAAC-FE5235942FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C2FBCF-530A-4ABB-9A8B-EE7D4D64F5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13125" yWindow="3360" windowWidth="18495" windowHeight="16230" xr2:uid="{9F743585-BF7D-479F-90C9-B09A032314DF}"/>
+    <workbookView xWindow="8835" yWindow="1635" windowWidth="18495" windowHeight="16230" xr2:uid="{9F743585-BF7D-479F-90C9-B09A032314DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,792 +36,798 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="263">
+  <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
+    <t>종로구</t>
+  </si>
+  <si>
+    <t>중구</t>
+  </si>
+  <si>
+    <t>용산구</t>
+  </si>
+  <si>
+    <t>성동구</t>
+  </si>
+  <si>
+    <t>광진구</t>
+  </si>
+  <si>
+    <t>동대문구</t>
+  </si>
+  <si>
+    <t>중랑구</t>
+  </si>
+  <si>
+    <t>성북구</t>
+  </si>
+  <si>
+    <t>강북구</t>
+  </si>
+  <si>
+    <t>도봉구</t>
+  </si>
+  <si>
+    <t>노원구</t>
+  </si>
+  <si>
+    <t>은평구</t>
+  </si>
+  <si>
+    <t>서대문구</t>
+  </si>
+  <si>
+    <t>마포구</t>
+  </si>
+  <si>
+    <t>양천구</t>
+  </si>
+  <si>
+    <t>강서구</t>
+  </si>
+  <si>
+    <t>구로구</t>
+  </si>
+  <si>
+    <t>금천구</t>
+  </si>
+  <si>
+    <t>영등포구</t>
+  </si>
+  <si>
+    <t>동작구</t>
+  </si>
+  <si>
+    <t>관악구</t>
+  </si>
+  <si>
+    <t>서초구</t>
+  </si>
+  <si>
+    <t>강남구</t>
+  </si>
+  <si>
+    <t>송파구</t>
+  </si>
+  <si>
+    <t>강동구</t>
+  </si>
+  <si>
+    <t>부산광역시</t>
+  </si>
+  <si>
+    <t>서구</t>
+  </si>
+  <si>
+    <t>동구</t>
+  </si>
+  <si>
+    <t>영도구</t>
+  </si>
+  <si>
+    <t>부산진구</t>
+  </si>
+  <si>
+    <t>동래구</t>
+  </si>
+  <si>
+    <t>남구</t>
+  </si>
+  <si>
+    <t>북구</t>
+  </si>
+  <si>
+    <t>해운대구</t>
+  </si>
+  <si>
+    <t>사하구</t>
+  </si>
+  <si>
+    <t>금정구</t>
+  </si>
+  <si>
+    <t>연제구</t>
+  </si>
+  <si>
+    <t>수영구</t>
+  </si>
+  <si>
+    <t>사상구</t>
+  </si>
+  <si>
+    <t>기장군</t>
+  </si>
+  <si>
+    <t>대구광역시</t>
+  </si>
+  <si>
+    <t>수성구</t>
+  </si>
+  <si>
+    <t>달서구</t>
+  </si>
+  <si>
+    <t>달성군</t>
+  </si>
+  <si>
+    <t>군위군</t>
+  </si>
+  <si>
+    <t>인천광역시</t>
+  </si>
+  <si>
+    <t>미추홀구</t>
+  </si>
+  <si>
+    <t>연수구</t>
+  </si>
+  <si>
+    <t>남동구</t>
+  </si>
+  <si>
+    <t>부평구</t>
+  </si>
+  <si>
+    <t>계양구</t>
+  </si>
+  <si>
+    <t>강화군</t>
+  </si>
+  <si>
+    <t>옹진군</t>
+  </si>
+  <si>
+    <t>광주광역시</t>
+  </si>
+  <si>
+    <t>광산구</t>
+  </si>
+  <si>
+    <t>대전광역시</t>
+  </si>
+  <si>
+    <t>유성구</t>
+  </si>
+  <si>
+    <t>대덕구</t>
+  </si>
+  <si>
+    <t>울산광역시</t>
+  </si>
+  <si>
+    <t>울주군</t>
+  </si>
+  <si>
+    <t>세종특별자치시</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>수원시</t>
+  </si>
+  <si>
+    <t>수원시 장안구</t>
+  </si>
+  <si>
+    <t>수원시 권선구</t>
+  </si>
+  <si>
+    <t>수원시 팔달구</t>
+  </si>
+  <si>
+    <t>수원시 영통구</t>
+  </si>
+  <si>
+    <t>성남시</t>
+  </si>
+  <si>
+    <t>성남시 수정구</t>
+  </si>
+  <si>
+    <t>성남시 중원구</t>
+  </si>
+  <si>
+    <t>성남시 분당구</t>
+  </si>
+  <si>
+    <t>의정부시</t>
+  </si>
+  <si>
+    <t>안양시</t>
+  </si>
+  <si>
+    <t>안양시 만안구</t>
+  </si>
+  <si>
+    <t>안양시 동안구</t>
+  </si>
+  <si>
+    <t>부천시</t>
+  </si>
+  <si>
+    <t>부천시 원미구</t>
+  </si>
+  <si>
+    <t>부천시 소사구</t>
+  </si>
+  <si>
+    <t>부천시 오정구</t>
+  </si>
+  <si>
+    <t>광명시</t>
+  </si>
+  <si>
+    <t>평택시</t>
+  </si>
+  <si>
+    <t>동두천시</t>
+  </si>
+  <si>
+    <t>안산시</t>
+  </si>
+  <si>
+    <t>안산시 상록구</t>
+  </si>
+  <si>
+    <t>안산시 단원구</t>
+  </si>
+  <si>
+    <t>고양시</t>
+  </si>
+  <si>
+    <t>고양시 덕양구</t>
+  </si>
+  <si>
+    <t>고양시 일산동구</t>
+  </si>
+  <si>
+    <t>고양시 일산서구</t>
+  </si>
+  <si>
+    <t>과천시</t>
+  </si>
+  <si>
+    <t>구리시</t>
+  </si>
+  <si>
+    <t>남양주시</t>
+  </si>
+  <si>
+    <t>오산시</t>
+  </si>
+  <si>
+    <t>시흥시</t>
+  </si>
+  <si>
+    <t>군포시</t>
+  </si>
+  <si>
+    <t>의왕시</t>
+  </si>
+  <si>
+    <t>하남시</t>
+  </si>
+  <si>
+    <t>용인시</t>
+  </si>
+  <si>
+    <t>용인시 처인구</t>
+  </si>
+  <si>
+    <t>용인시 기흥구</t>
+  </si>
+  <si>
+    <t>용인시 수지구</t>
+  </si>
+  <si>
+    <t>파주시</t>
+  </si>
+  <si>
+    <t>이천시</t>
+  </si>
+  <si>
+    <t>안성시</t>
+  </si>
+  <si>
+    <t>김포시</t>
+  </si>
+  <si>
+    <t>화성시</t>
+  </si>
+  <si>
+    <t>광주시</t>
+  </si>
+  <si>
+    <t>양주시</t>
+  </si>
+  <si>
+    <t>포천시</t>
+  </si>
+  <si>
+    <t>여주시</t>
+  </si>
+  <si>
+    <t>연천군</t>
+  </si>
+  <si>
+    <t>가평군</t>
+  </si>
+  <si>
+    <t>양평군</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
+    <t>청주시</t>
+  </si>
+  <si>
+    <t>청주시 상당구</t>
+  </si>
+  <si>
+    <t>청주시 서원구</t>
+  </si>
+  <si>
+    <t>청주시 흥덕구</t>
+  </si>
+  <si>
+    <t>청주시 청원구</t>
+  </si>
+  <si>
+    <t>충주시</t>
+  </si>
+  <si>
+    <t>제천시</t>
+  </si>
+  <si>
+    <t>보은군</t>
+  </si>
+  <si>
+    <t>옥천군</t>
+  </si>
+  <si>
+    <t>영동군</t>
+  </si>
+  <si>
+    <t>증평군</t>
+  </si>
+  <si>
+    <t>진천군</t>
+  </si>
+  <si>
+    <t>괴산군</t>
+  </si>
+  <si>
+    <t>음성군</t>
+  </si>
+  <si>
+    <t>단양군</t>
+  </si>
+  <si>
+    <t>충청남도</t>
+  </si>
+  <si>
+    <t>천안시</t>
+  </si>
+  <si>
+    <t>천안시 동남구</t>
+  </si>
+  <si>
+    <t>천안시 서북구</t>
+  </si>
+  <si>
+    <t>공주시</t>
+  </si>
+  <si>
+    <t>보령시</t>
+  </si>
+  <si>
+    <t>아산시</t>
+  </si>
+  <si>
+    <t>서산시</t>
+  </si>
+  <si>
+    <t>논산시</t>
+  </si>
+  <si>
+    <t>계룡시</t>
+  </si>
+  <si>
+    <t>당진시</t>
+  </si>
+  <si>
+    <t>금산군</t>
+  </si>
+  <si>
+    <t>부여군</t>
+  </si>
+  <si>
+    <t>서천군</t>
+  </si>
+  <si>
+    <t>청양군</t>
+  </si>
+  <si>
+    <t>홍성군</t>
+  </si>
+  <si>
+    <t>예산군</t>
+  </si>
+  <si>
+    <t>태안군</t>
+  </si>
+  <si>
+    <t>전라북도</t>
+  </si>
+  <si>
+    <t>전주시</t>
+  </si>
+  <si>
+    <t>전주시 완산구</t>
+  </si>
+  <si>
+    <t>전주시 덕진구</t>
+  </si>
+  <si>
+    <t>군산시</t>
+  </si>
+  <si>
+    <t>익산시</t>
+  </si>
+  <si>
+    <t>정읍시</t>
+  </si>
+  <si>
+    <t>남원시</t>
+  </si>
+  <si>
+    <t>김제시</t>
+  </si>
+  <si>
+    <t>완주군</t>
+  </si>
+  <si>
+    <t>진안군</t>
+  </si>
+  <si>
+    <t>무주군</t>
+  </si>
+  <si>
+    <t>장수군</t>
+  </si>
+  <si>
+    <t>임실군</t>
+  </si>
+  <si>
+    <t>순창군</t>
+  </si>
+  <si>
+    <t>고창군</t>
+  </si>
+  <si>
+    <t>부안군</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
+    <t>목포시</t>
+  </si>
+  <si>
+    <t>여수시</t>
+  </si>
+  <si>
+    <t>순천시</t>
+  </si>
+  <si>
+    <t>나주시</t>
+  </si>
+  <si>
+    <t>광양시</t>
+  </si>
+  <si>
+    <t>담양군</t>
+  </si>
+  <si>
+    <t>곡성군</t>
+  </si>
+  <si>
+    <t>구례군</t>
+  </si>
+  <si>
+    <t>고흥군</t>
+  </si>
+  <si>
+    <t>보성군</t>
+  </si>
+  <si>
+    <t>화순군</t>
+  </si>
+  <si>
+    <t>장흥군</t>
+  </si>
+  <si>
+    <t>강진군</t>
+  </si>
+  <si>
+    <t>해남군</t>
+  </si>
+  <si>
+    <t>영암군</t>
+  </si>
+  <si>
+    <t>무안군</t>
+  </si>
+  <si>
+    <t>함평군</t>
+  </si>
+  <si>
+    <t>영광군</t>
+  </si>
+  <si>
+    <t>장성군</t>
+  </si>
+  <si>
+    <t>완도군</t>
+  </si>
+  <si>
+    <t>진도군</t>
+  </si>
+  <si>
+    <t>신안군</t>
+  </si>
+  <si>
+    <t>경상북도</t>
+  </si>
+  <si>
+    <t>포항시</t>
+  </si>
+  <si>
+    <t>포항시 남구</t>
+  </si>
+  <si>
+    <t>포항시 북구</t>
+  </si>
+  <si>
+    <t>경주시</t>
+  </si>
+  <si>
+    <t>김천시</t>
+  </si>
+  <si>
+    <t>안동시</t>
+  </si>
+  <si>
+    <t>구미시</t>
+  </si>
+  <si>
+    <t>영주시</t>
+  </si>
+  <si>
+    <t>영천시</t>
+  </si>
+  <si>
+    <t>상주시</t>
+  </si>
+  <si>
+    <t>문경시</t>
+  </si>
+  <si>
+    <t>경산시</t>
+  </si>
+  <si>
+    <t>의성군</t>
+  </si>
+  <si>
+    <t>청송군</t>
+  </si>
+  <si>
+    <t>영양군</t>
+  </si>
+  <si>
+    <t>영덕군</t>
+  </si>
+  <si>
+    <t>청도군</t>
+  </si>
+  <si>
+    <t>고령군</t>
+  </si>
+  <si>
+    <t>성주군</t>
+  </si>
+  <si>
+    <t>칠곡군</t>
+  </si>
+  <si>
+    <t>예천군</t>
+  </si>
+  <si>
+    <t>봉화군</t>
+  </si>
+  <si>
+    <t>울진군</t>
+  </si>
+  <si>
+    <t>울릉군</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t>창원시</t>
+  </si>
+  <si>
+    <t>창원시 의창구</t>
+  </si>
+  <si>
+    <t>창원시 성산구</t>
+  </si>
+  <si>
+    <t>창원시 마산합포구</t>
+  </si>
+  <si>
+    <t>창원시 마산회원구</t>
+  </si>
+  <si>
+    <t>창원시 진해구</t>
+  </si>
+  <si>
+    <t>진주시</t>
+  </si>
+  <si>
+    <t>통영시</t>
+  </si>
+  <si>
+    <t>사천시</t>
+  </si>
+  <si>
+    <t>김해시</t>
+  </si>
+  <si>
+    <t>밀양시</t>
+  </si>
+  <si>
+    <t>거제시</t>
+  </si>
+  <si>
+    <t>양산시</t>
+  </si>
+  <si>
+    <t>의령군</t>
+  </si>
+  <si>
+    <t>함안군</t>
+  </si>
+  <si>
+    <t>창녕군</t>
+  </si>
+  <si>
+    <t>고성군</t>
+  </si>
+  <si>
+    <t>남해군</t>
+  </si>
+  <si>
+    <t>하동군</t>
+  </si>
+  <si>
+    <t>산청군</t>
+  </si>
+  <si>
+    <t>함양군</t>
+  </si>
+  <si>
+    <t>거창군</t>
+  </si>
+  <si>
+    <t>합천군</t>
+  </si>
+  <si>
+    <t>제주특별자치도</t>
+  </si>
+  <si>
+    <t>제주시</t>
+  </si>
+  <si>
+    <t>서귀포시</t>
+  </si>
+  <si>
+    <t>강원특별자치도</t>
+  </si>
+  <si>
+    <t>춘천시</t>
+  </si>
+  <si>
+    <t>원주시</t>
+  </si>
+  <si>
+    <t>강릉시</t>
+  </si>
+  <si>
+    <t>동해시</t>
+  </si>
+  <si>
+    <t>태백시</t>
+  </si>
+  <si>
+    <t>속초시</t>
+  </si>
+  <si>
+    <t>삼척시</t>
+  </si>
+  <si>
+    <t>홍천군</t>
+  </si>
+  <si>
+    <t>횡성군</t>
+  </si>
+  <si>
+    <t>영월군</t>
+  </si>
+  <si>
+    <t>평창군</t>
+  </si>
+  <si>
+    <t>정선군</t>
+  </si>
+  <si>
+    <t>철원군</t>
+  </si>
+  <si>
+    <t>화천군</t>
+  </si>
+  <si>
+    <t>양구군</t>
+  </si>
+  <si>
+    <t>인제군</t>
+  </si>
+  <si>
+    <t>양양군</t>
+  </si>
+  <si>
+    <t>시군구코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>시도명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시군구명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서울특별시</t>
-  </si>
-  <si>
-    <t>종로구</t>
-  </si>
-  <si>
-    <t>중구</t>
-  </si>
-  <si>
-    <t>용산구</t>
-  </si>
-  <si>
-    <t>성동구</t>
-  </si>
-  <si>
-    <t>광진구</t>
-  </si>
-  <si>
-    <t>동대문구</t>
-  </si>
-  <si>
-    <t>중랑구</t>
-  </si>
-  <si>
-    <t>성북구</t>
-  </si>
-  <si>
-    <t>강북구</t>
-  </si>
-  <si>
-    <t>도봉구</t>
-  </si>
-  <si>
-    <t>노원구</t>
-  </si>
-  <si>
-    <t>은평구</t>
-  </si>
-  <si>
-    <t>서대문구</t>
-  </si>
-  <si>
-    <t>마포구</t>
-  </si>
-  <si>
-    <t>양천구</t>
-  </si>
-  <si>
-    <t>강서구</t>
-  </si>
-  <si>
-    <t>구로구</t>
-  </si>
-  <si>
-    <t>금천구</t>
-  </si>
-  <si>
-    <t>영등포구</t>
-  </si>
-  <si>
-    <t>동작구</t>
-  </si>
-  <si>
-    <t>관악구</t>
-  </si>
-  <si>
-    <t>서초구</t>
-  </si>
-  <si>
-    <t>강남구</t>
-  </si>
-  <si>
-    <t>송파구</t>
-  </si>
-  <si>
-    <t>강동구</t>
-  </si>
-  <si>
-    <t>부산광역시</t>
-  </si>
-  <si>
-    <t>서구</t>
-  </si>
-  <si>
-    <t>동구</t>
-  </si>
-  <si>
-    <t>영도구</t>
-  </si>
-  <si>
-    <t>부산진구</t>
-  </si>
-  <si>
-    <t>동래구</t>
-  </si>
-  <si>
-    <t>남구</t>
-  </si>
-  <si>
-    <t>북구</t>
-  </si>
-  <si>
-    <t>해운대구</t>
-  </si>
-  <si>
-    <t>사하구</t>
-  </si>
-  <si>
-    <t>금정구</t>
-  </si>
-  <si>
-    <t>연제구</t>
-  </si>
-  <si>
-    <t>수영구</t>
-  </si>
-  <si>
-    <t>사상구</t>
-  </si>
-  <si>
-    <t>기장군</t>
-  </si>
-  <si>
-    <t>대구광역시</t>
-  </si>
-  <si>
-    <t>수성구</t>
-  </si>
-  <si>
-    <t>달서구</t>
-  </si>
-  <si>
-    <t>달성군</t>
-  </si>
-  <si>
-    <t>군위군</t>
-  </si>
-  <si>
-    <t>인천광역시</t>
-  </si>
-  <si>
-    <t>미추홀구</t>
-  </si>
-  <si>
-    <t>연수구</t>
-  </si>
-  <si>
-    <t>남동구</t>
-  </si>
-  <si>
-    <t>부평구</t>
-  </si>
-  <si>
-    <t>계양구</t>
-  </si>
-  <si>
-    <t>강화군</t>
-  </si>
-  <si>
-    <t>옹진군</t>
-  </si>
-  <si>
-    <t>광주광역시</t>
-  </si>
-  <si>
-    <t>광산구</t>
-  </si>
-  <si>
-    <t>대전광역시</t>
-  </si>
-  <si>
-    <t>유성구</t>
-  </si>
-  <si>
-    <t>대덕구</t>
-  </si>
-  <si>
-    <t>울산광역시</t>
-  </si>
-  <si>
-    <t>울주군</t>
-  </si>
-  <si>
-    <t>세종특별자치시</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>경기도</t>
-  </si>
-  <si>
-    <t>수원시</t>
-  </si>
-  <si>
-    <t>수원시 장안구</t>
-  </si>
-  <si>
-    <t>수원시 권선구</t>
-  </si>
-  <si>
-    <t>수원시 팔달구</t>
-  </si>
-  <si>
-    <t>수원시 영통구</t>
-  </si>
-  <si>
-    <t>성남시</t>
-  </si>
-  <si>
-    <t>성남시 수정구</t>
-  </si>
-  <si>
-    <t>성남시 중원구</t>
-  </si>
-  <si>
-    <t>성남시 분당구</t>
-  </si>
-  <si>
-    <t>의정부시</t>
-  </si>
-  <si>
-    <t>안양시</t>
-  </si>
-  <si>
-    <t>안양시 만안구</t>
-  </si>
-  <si>
-    <t>안양시 동안구</t>
-  </si>
-  <si>
-    <t>부천시</t>
-  </si>
-  <si>
-    <t>부천시 원미구</t>
-  </si>
-  <si>
-    <t>부천시 소사구</t>
-  </si>
-  <si>
-    <t>부천시 오정구</t>
-  </si>
-  <si>
-    <t>광명시</t>
-  </si>
-  <si>
-    <t>평택시</t>
-  </si>
-  <si>
-    <t>동두천시</t>
-  </si>
-  <si>
-    <t>안산시</t>
-  </si>
-  <si>
-    <t>안산시 상록구</t>
-  </si>
-  <si>
-    <t>안산시 단원구</t>
-  </si>
-  <si>
-    <t>고양시</t>
-  </si>
-  <si>
-    <t>고양시 덕양구</t>
-  </si>
-  <si>
-    <t>고양시 일산동구</t>
-  </si>
-  <si>
-    <t>고양시 일산서구</t>
-  </si>
-  <si>
-    <t>과천시</t>
-  </si>
-  <si>
-    <t>구리시</t>
-  </si>
-  <si>
-    <t>남양주시</t>
-  </si>
-  <si>
-    <t>오산시</t>
-  </si>
-  <si>
-    <t>시흥시</t>
-  </si>
-  <si>
-    <t>군포시</t>
-  </si>
-  <si>
-    <t>의왕시</t>
-  </si>
-  <si>
-    <t>하남시</t>
-  </si>
-  <si>
-    <t>용인시</t>
-  </si>
-  <si>
-    <t>용인시 처인구</t>
-  </si>
-  <si>
-    <t>용인시 기흥구</t>
-  </si>
-  <si>
-    <t>용인시 수지구</t>
-  </si>
-  <si>
-    <t>파주시</t>
-  </si>
-  <si>
-    <t>이천시</t>
-  </si>
-  <si>
-    <t>안성시</t>
-  </si>
-  <si>
-    <t>김포시</t>
-  </si>
-  <si>
-    <t>화성시</t>
-  </si>
-  <si>
-    <t>광주시</t>
-  </si>
-  <si>
-    <t>양주시</t>
-  </si>
-  <si>
-    <t>포천시</t>
-  </si>
-  <si>
-    <t>여주시</t>
-  </si>
-  <si>
-    <t>연천군</t>
-  </si>
-  <si>
-    <t>가평군</t>
-  </si>
-  <si>
-    <t>양평군</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-  </si>
-  <si>
-    <t>청주시</t>
-  </si>
-  <si>
-    <t>청주시 상당구</t>
-  </si>
-  <si>
-    <t>청주시 서원구</t>
-  </si>
-  <si>
-    <t>청주시 흥덕구</t>
-  </si>
-  <si>
-    <t>청주시 청원구</t>
-  </si>
-  <si>
-    <t>충주시</t>
-  </si>
-  <si>
-    <t>제천시</t>
-  </si>
-  <si>
-    <t>보은군</t>
-  </si>
-  <si>
-    <t>옥천군</t>
-  </si>
-  <si>
-    <t>영동군</t>
-  </si>
-  <si>
-    <t>증평군</t>
-  </si>
-  <si>
-    <t>진천군</t>
-  </si>
-  <si>
-    <t>괴산군</t>
-  </si>
-  <si>
-    <t>음성군</t>
-  </si>
-  <si>
-    <t>단양군</t>
-  </si>
-  <si>
-    <t>충청남도</t>
-  </si>
-  <si>
-    <t>천안시</t>
-  </si>
-  <si>
-    <t>천안시 동남구</t>
-  </si>
-  <si>
-    <t>천안시 서북구</t>
-  </si>
-  <si>
-    <t>공주시</t>
-  </si>
-  <si>
-    <t>보령시</t>
-  </si>
-  <si>
-    <t>아산시</t>
-  </si>
-  <si>
-    <t>서산시</t>
-  </si>
-  <si>
-    <t>논산시</t>
-  </si>
-  <si>
-    <t>계룡시</t>
-  </si>
-  <si>
-    <t>당진시</t>
-  </si>
-  <si>
-    <t>금산군</t>
-  </si>
-  <si>
-    <t>부여군</t>
-  </si>
-  <si>
-    <t>서천군</t>
-  </si>
-  <si>
-    <t>청양군</t>
-  </si>
-  <si>
-    <t>홍성군</t>
-  </si>
-  <si>
-    <t>예산군</t>
-  </si>
-  <si>
-    <t>태안군</t>
-  </si>
-  <si>
-    <t>전라북도</t>
-  </si>
-  <si>
-    <t>전주시</t>
-  </si>
-  <si>
-    <t>전주시 완산구</t>
-  </si>
-  <si>
-    <t>전주시 덕진구</t>
-  </si>
-  <si>
-    <t>군산시</t>
-  </si>
-  <si>
-    <t>익산시</t>
-  </si>
-  <si>
-    <t>정읍시</t>
-  </si>
-  <si>
-    <t>남원시</t>
-  </si>
-  <si>
-    <t>김제시</t>
-  </si>
-  <si>
-    <t>완주군</t>
-  </si>
-  <si>
-    <t>진안군</t>
-  </si>
-  <si>
-    <t>무주군</t>
-  </si>
-  <si>
-    <t>장수군</t>
-  </si>
-  <si>
-    <t>임실군</t>
-  </si>
-  <si>
-    <t>순창군</t>
-  </si>
-  <si>
-    <t>고창군</t>
-  </si>
-  <si>
-    <t>부안군</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>목포시</t>
-  </si>
-  <si>
-    <t>여수시</t>
-  </si>
-  <si>
-    <t>순천시</t>
-  </si>
-  <si>
-    <t>나주시</t>
-  </si>
-  <si>
-    <t>광양시</t>
-  </si>
-  <si>
-    <t>담양군</t>
-  </si>
-  <si>
-    <t>곡성군</t>
-  </si>
-  <si>
-    <t>구례군</t>
-  </si>
-  <si>
-    <t>고흥군</t>
-  </si>
-  <si>
-    <t>보성군</t>
-  </si>
-  <si>
-    <t>화순군</t>
-  </si>
-  <si>
-    <t>장흥군</t>
-  </si>
-  <si>
-    <t>강진군</t>
-  </si>
-  <si>
-    <t>해남군</t>
-  </si>
-  <si>
-    <t>영암군</t>
-  </si>
-  <si>
-    <t>무안군</t>
-  </si>
-  <si>
-    <t>함평군</t>
-  </si>
-  <si>
-    <t>영광군</t>
-  </si>
-  <si>
-    <t>장성군</t>
-  </si>
-  <si>
-    <t>완도군</t>
-  </si>
-  <si>
-    <t>진도군</t>
-  </si>
-  <si>
-    <t>신안군</t>
-  </si>
-  <si>
-    <t>경상북도</t>
-  </si>
-  <si>
-    <t>포항시</t>
-  </si>
-  <si>
-    <t>포항시 남구</t>
-  </si>
-  <si>
-    <t>포항시 북구</t>
-  </si>
-  <si>
-    <t>경주시</t>
-  </si>
-  <si>
-    <t>김천시</t>
-  </si>
-  <si>
-    <t>안동시</t>
-  </si>
-  <si>
-    <t>구미시</t>
-  </si>
-  <si>
-    <t>영주시</t>
-  </si>
-  <si>
-    <t>영천시</t>
-  </si>
-  <si>
-    <t>상주시</t>
-  </si>
-  <si>
-    <t>문경시</t>
-  </si>
-  <si>
-    <t>경산시</t>
-  </si>
-  <si>
-    <t>의성군</t>
-  </si>
-  <si>
-    <t>청송군</t>
-  </si>
-  <si>
-    <t>영양군</t>
-  </si>
-  <si>
-    <t>영덕군</t>
-  </si>
-  <si>
-    <t>청도군</t>
-  </si>
-  <si>
-    <t>고령군</t>
-  </si>
-  <si>
-    <t>성주군</t>
-  </si>
-  <si>
-    <t>칠곡군</t>
-  </si>
-  <si>
-    <t>예천군</t>
-  </si>
-  <si>
-    <t>봉화군</t>
-  </si>
-  <si>
-    <t>울진군</t>
-  </si>
-  <si>
-    <t>울릉군</t>
-  </si>
-  <si>
-    <t>경상남도</t>
-  </si>
-  <si>
-    <t>창원시</t>
-  </si>
-  <si>
-    <t>창원시 의창구</t>
-  </si>
-  <si>
-    <t>창원시 성산구</t>
-  </si>
-  <si>
-    <t>창원시 마산합포구</t>
-  </si>
-  <si>
-    <t>창원시 마산회원구</t>
-  </si>
-  <si>
-    <t>창원시 진해구</t>
-  </si>
-  <si>
-    <t>진주시</t>
-  </si>
-  <si>
-    <t>통영시</t>
-  </si>
-  <si>
-    <t>사천시</t>
-  </si>
-  <si>
-    <t>김해시</t>
-  </si>
-  <si>
-    <t>밀양시</t>
-  </si>
-  <si>
-    <t>거제시</t>
-  </si>
-  <si>
-    <t>양산시</t>
-  </si>
-  <si>
-    <t>의령군</t>
-  </si>
-  <si>
-    <t>함안군</t>
-  </si>
-  <si>
-    <t>창녕군</t>
-  </si>
-  <si>
-    <t>고성군</t>
-  </si>
-  <si>
-    <t>남해군</t>
-  </si>
-  <si>
-    <t>하동군</t>
-  </si>
-  <si>
-    <t>산청군</t>
-  </si>
-  <si>
-    <t>함양군</t>
-  </si>
-  <si>
-    <t>거창군</t>
-  </si>
-  <si>
-    <t>합천군</t>
-  </si>
-  <si>
-    <t>제주특별자치도</t>
-  </si>
-  <si>
-    <t>제주시</t>
-  </si>
-  <si>
-    <t>서귀포시</t>
-  </si>
-  <si>
-    <t>강원특별자치도</t>
-  </si>
-  <si>
-    <t>춘천시</t>
-  </si>
-  <si>
-    <t>원주시</t>
-  </si>
-  <si>
-    <t>강릉시</t>
-  </si>
-  <si>
-    <t>동해시</t>
-  </si>
-  <si>
-    <t>태백시</t>
-  </si>
-  <si>
-    <t>속초시</t>
-  </si>
-  <si>
-    <t>삼척시</t>
-  </si>
-  <si>
-    <t>홍천군</t>
-  </si>
-  <si>
-    <t>횡성군</t>
-  </si>
-  <si>
-    <t>영월군</t>
-  </si>
-  <si>
-    <t>평창군</t>
-  </si>
-  <si>
-    <t>정선군</t>
-  </si>
-  <si>
-    <t>철원군</t>
-  </si>
-  <si>
-    <t>화천군</t>
-  </si>
-  <si>
-    <t>양구군</t>
-  </si>
-  <si>
-    <t>인제군</t>
-  </si>
-  <si>
-    <t>양양군</t>
-  </si>
-  <si>
-    <t>시군구코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -842,6 +848,8 @@
       <b/>
       <sz val="11"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1242,21 +1250,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C903EB-0EFB-4748-9988-09A2596AB985}">
   <dimension ref="A1:C265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1264,10 +1275,10 @@
         <v>11110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1275,10 +1286,10 @@
         <v>11140</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1286,10 +1297,10 @@
         <v>11170</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1297,10 +1308,10 @@
         <v>11200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1308,10 +1319,10 @@
         <v>11215</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1319,10 +1330,10 @@
         <v>11230</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1330,10 +1341,10 @@
         <v>11260</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1341,10 +1352,10 @@
         <v>11290</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1352,10 +1363,10 @@
         <v>11305</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1363,10 +1374,10 @@
         <v>11320</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1374,10 +1385,10 @@
         <v>11350</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1385,10 +1396,10 @@
         <v>11380</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1396,10 +1407,10 @@
         <v>11410</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1407,10 +1418,10 @@
         <v>11440</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,10 +1429,10 @@
         <v>11470</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1429,10 +1440,10 @@
         <v>11500</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1440,10 +1451,10 @@
         <v>11530</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1451,10 +1462,10 @@
         <v>11545</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1462,10 +1473,10 @@
         <v>11560</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1473,10 +1484,10 @@
         <v>11590</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1484,10 +1495,10 @@
         <v>11620</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,10 +1506,10 @@
         <v>11650</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1506,10 +1517,10 @@
         <v>11680</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1517,10 +1528,10 @@
         <v>11710</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1528,10 +1539,10 @@
         <v>11740</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1539,10 +1550,10 @@
         <v>26110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1550,10 +1561,10 @@
         <v>26140</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,10 +1572,10 @@
         <v>26170</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1572,10 +1583,10 @@
         <v>26200</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1583,10 +1594,10 @@
         <v>26230</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1594,10 +1605,10 @@
         <v>26260</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1605,10 +1616,10 @@
         <v>26290</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1616,10 +1627,10 @@
         <v>26320</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1627,10 +1638,10 @@
         <v>26350</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1638,10 +1649,10 @@
         <v>26380</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1649,10 +1660,10 @@
         <v>26410</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1660,10 +1671,10 @@
         <v>26440</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1671,10 +1682,10 @@
         <v>26470</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1682,10 +1693,10 @@
         <v>26500</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1693,10 +1704,10 @@
         <v>26530</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1704,10 +1715,10 @@
         <v>26710</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1715,10 +1726,10 @@
         <v>27110</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1726,10 +1737,10 @@
         <v>27140</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1737,10 +1748,10 @@
         <v>27170</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1748,10 +1759,10 @@
         <v>27200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1759,10 +1770,10 @@
         <v>27230</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1770,10 +1781,10 @@
         <v>27260</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1781,10 +1792,10 @@
         <v>27290</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1792,10 +1803,10 @@
         <v>27710</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1803,10 +1814,10 @@
         <v>27720</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1814,10 +1825,10 @@
         <v>28110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1825,10 +1836,10 @@
         <v>28140</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1836,10 +1847,10 @@
         <v>28177</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1847,10 +1858,10 @@
         <v>28185</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1858,10 +1869,10 @@
         <v>28200</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1869,10 +1880,10 @@
         <v>28237</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1880,10 +1891,10 @@
         <v>28245</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1891,10 +1902,10 @@
         <v>28260</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1902,10 +1913,10 @@
         <v>28710</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1913,10 +1924,10 @@
         <v>28720</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1924,10 +1935,10 @@
         <v>29110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1935,10 +1946,10 @@
         <v>29140</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1946,10 +1957,10 @@
         <v>29155</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1957,10 +1968,10 @@
         <v>29170</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1968,10 +1979,10 @@
         <v>29200</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1979,10 +1990,10 @@
         <v>30110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1990,10 +2001,10 @@
         <v>30140</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2001,10 +2012,10 @@
         <v>30170</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2012,10 +2023,10 @@
         <v>30200</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2023,10 +2034,10 @@
         <v>30230</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2034,10 +2045,10 @@
         <v>31110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2045,10 +2056,10 @@
         <v>31140</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2056,10 +2067,10 @@
         <v>31170</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2067,10 +2078,10 @@
         <v>31200</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2078,10 +2089,10 @@
         <v>31710</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2089,10 +2100,10 @@
         <v>36110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2100,10 +2111,10 @@
         <v>41110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2111,10 +2122,10 @@
         <v>41111</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2122,10 +2133,10 @@
         <v>41113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2133,10 +2144,10 @@
         <v>41115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2144,10 +2155,10 @@
         <v>41117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2155,10 +2166,10 @@
         <v>41130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -2166,10 +2177,10 @@
         <v>41131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2177,10 +2188,10 @@
         <v>41133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -2188,10 +2199,10 @@
         <v>41135</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -2199,10 +2210,10 @@
         <v>41150</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2210,10 +2221,10 @@
         <v>41170</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2221,10 +2232,10 @@
         <v>41171</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -2232,10 +2243,10 @@
         <v>41173</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2243,10 +2254,10 @@
         <v>41190</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -2254,10 +2265,10 @@
         <v>41192</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2265,10 +2276,10 @@
         <v>41194</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2276,10 +2287,10 @@
         <v>41196</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2287,10 +2298,10 @@
         <v>41210</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2298,10 +2309,10 @@
         <v>41220</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2309,10 +2320,10 @@
         <v>41250</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -2320,10 +2331,10 @@
         <v>41270</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2331,10 +2342,10 @@
         <v>41271</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2342,10 +2353,10 @@
         <v>41273</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2353,10 +2364,10 @@
         <v>41280</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2364,10 +2375,10 @@
         <v>41281</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2375,10 +2386,10 @@
         <v>41285</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -2386,10 +2397,10 @@
         <v>41287</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -2397,10 +2408,10 @@
         <v>41290</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -2408,10 +2419,10 @@
         <v>41310</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -2419,10 +2430,10 @@
         <v>41360</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -2430,10 +2441,10 @@
         <v>41370</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -2441,10 +2452,10 @@
         <v>41390</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -2452,10 +2463,10 @@
         <v>41410</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -2463,10 +2474,10 @@
         <v>41430</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -2474,10 +2485,10 @@
         <v>41450</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -2485,10 +2496,10 @@
         <v>41460</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -2496,10 +2507,10 @@
         <v>41461</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -2507,10 +2518,10 @@
         <v>41463</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -2518,10 +2529,10 @@
         <v>41465</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2529,10 +2540,10 @@
         <v>41480</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -2540,10 +2551,10 @@
         <v>41500</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -2551,10 +2562,10 @@
         <v>41550</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2562,10 +2573,10 @@
         <v>41570</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -2573,10 +2584,10 @@
         <v>41590</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2584,10 +2595,10 @@
         <v>41610</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -2595,10 +2606,10 @@
         <v>41630</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -2606,10 +2617,10 @@
         <v>41650</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -2617,10 +2628,10 @@
         <v>41670</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -2628,10 +2639,10 @@
         <v>41800</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -2639,10 +2650,10 @@
         <v>41820</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -2650,10 +2661,10 @@
         <v>41830</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -2661,10 +2672,10 @@
         <v>43110</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -2672,10 +2683,10 @@
         <v>43111</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -2683,10 +2694,10 @@
         <v>43112</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -2694,10 +2705,10 @@
         <v>43113</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -2705,10 +2716,10 @@
         <v>43114</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -2716,10 +2727,10 @@
         <v>43130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -2727,10 +2738,10 @@
         <v>43150</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -2738,10 +2749,10 @@
         <v>43720</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -2749,10 +2760,10 @@
         <v>43730</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2760,10 +2771,10 @@
         <v>43740</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -2771,10 +2782,10 @@
         <v>43745</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -2782,10 +2793,10 @@
         <v>43750</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -2793,10 +2804,10 @@
         <v>43760</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -2804,10 +2815,10 @@
         <v>43770</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -2815,10 +2826,10 @@
         <v>43800</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -2826,10 +2837,10 @@
         <v>44130</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -2837,10 +2848,10 @@
         <v>44131</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -2848,10 +2859,10 @@
         <v>44133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2859,10 +2870,10 @@
         <v>44150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -2870,10 +2881,10 @@
         <v>44180</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2881,10 +2892,10 @@
         <v>44200</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -2892,10 +2903,10 @@
         <v>44210</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -2903,10 +2914,10 @@
         <v>44230</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -2914,10 +2925,10 @@
         <v>44250</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -2925,10 +2936,10 @@
         <v>44270</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -2936,10 +2947,10 @@
         <v>44710</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -2947,10 +2958,10 @@
         <v>44760</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -2958,10 +2969,10 @@
         <v>44770</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -2969,10 +2980,10 @@
         <v>44790</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -2980,10 +2991,10 @@
         <v>44800</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -2991,10 +3002,10 @@
         <v>44810</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -3002,10 +3013,10 @@
         <v>44825</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -3013,10 +3024,10 @@
         <v>45110</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -3024,10 +3035,10 @@
         <v>45111</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -3035,10 +3046,10 @@
         <v>45113</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -3046,10 +3057,10 @@
         <v>45130</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -3057,10 +3068,10 @@
         <v>45140</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -3068,10 +3079,10 @@
         <v>45180</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -3079,10 +3090,10 @@
         <v>45190</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -3090,10 +3101,10 @@
         <v>45210</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -3101,10 +3112,10 @@
         <v>45710</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -3112,10 +3123,10 @@
         <v>45720</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -3123,10 +3134,10 @@
         <v>45730</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -3134,10 +3145,10 @@
         <v>45740</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -3145,10 +3156,10 @@
         <v>45750</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -3156,10 +3167,10 @@
         <v>45770</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -3167,10 +3178,10 @@
         <v>45790</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -3178,10 +3189,10 @@
         <v>45800</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -3189,10 +3200,10 @@
         <v>46110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -3200,10 +3211,10 @@
         <v>46130</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -3211,10 +3222,10 @@
         <v>46150</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -3222,10 +3233,10 @@
         <v>46170</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -3233,10 +3244,10 @@
         <v>46230</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -3244,10 +3255,10 @@
         <v>46710</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -3255,10 +3266,10 @@
         <v>46720</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -3266,10 +3277,10 @@
         <v>46730</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -3277,10 +3288,10 @@
         <v>46770</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -3288,10 +3299,10 @@
         <v>46780</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -3299,10 +3310,10 @@
         <v>46790</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -3310,10 +3321,10 @@
         <v>46800</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -3321,10 +3332,10 @@
         <v>46810</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -3332,10 +3343,10 @@
         <v>46820</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -3343,10 +3354,10 @@
         <v>46830</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -3354,10 +3365,10 @@
         <v>46840</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -3365,10 +3376,10 @@
         <v>46860</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -3376,10 +3387,10 @@
         <v>46870</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -3387,10 +3398,10 @@
         <v>46880</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -3398,10 +3409,10 @@
         <v>46890</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -3409,10 +3420,10 @@
         <v>46900</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -3420,10 +3431,10 @@
         <v>46910</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -3431,10 +3442,10 @@
         <v>47110</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -3442,10 +3453,10 @@
         <v>47111</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -3453,10 +3464,10 @@
         <v>47113</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -3464,10 +3475,10 @@
         <v>47130</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -3475,10 +3486,10 @@
         <v>47150</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -3486,10 +3497,10 @@
         <v>47170</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -3497,10 +3508,10 @@
         <v>47190</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -3508,10 +3519,10 @@
         <v>47210</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -3519,10 +3530,10 @@
         <v>47230</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -3530,10 +3541,10 @@
         <v>47250</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -3541,10 +3552,10 @@
         <v>47280</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -3552,10 +3563,10 @@
         <v>47290</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -3563,10 +3574,10 @@
         <v>47730</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -3574,10 +3585,10 @@
         <v>47750</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -3585,10 +3596,10 @@
         <v>47760</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -3596,10 +3607,10 @@
         <v>47770</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -3607,10 +3618,10 @@
         <v>47820</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -3618,10 +3629,10 @@
         <v>47830</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -3629,10 +3640,10 @@
         <v>47840</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -3640,10 +3651,10 @@
         <v>47850</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -3651,10 +3662,10 @@
         <v>47900</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -3662,10 +3673,10 @@
         <v>47920</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -3673,10 +3684,10 @@
         <v>47930</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -3684,10 +3695,10 @@
         <v>47940</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -3695,10 +3706,10 @@
         <v>48120</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -3706,10 +3717,10 @@
         <v>48121</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -3717,10 +3728,10 @@
         <v>48123</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -3728,10 +3739,10 @@
         <v>48125</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -3739,10 +3750,10 @@
         <v>48127</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -3750,10 +3761,10 @@
         <v>48129</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -3761,10 +3772,10 @@
         <v>48170</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -3772,10 +3783,10 @@
         <v>48220</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -3783,10 +3794,10 @@
         <v>48240</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -3794,10 +3805,10 @@
         <v>48250</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -3805,10 +3816,10 @@
         <v>48270</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -3816,10 +3827,10 @@
         <v>48310</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -3827,10 +3838,10 @@
         <v>48330</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -3838,10 +3849,10 @@
         <v>48720</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -3849,10 +3860,10 @@
         <v>48730</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -3860,10 +3871,10 @@
         <v>48740</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -3871,10 +3882,10 @@
         <v>48820</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -3882,10 +3893,10 @@
         <v>48840</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -3893,10 +3904,10 @@
         <v>48850</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -3904,10 +3915,10 @@
         <v>48860</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -3915,10 +3926,10 @@
         <v>48870</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -3926,10 +3937,10 @@
         <v>48880</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -3937,10 +3948,10 @@
         <v>48890</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -3948,10 +3959,10 @@
         <v>50110</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -3959,10 +3970,10 @@
         <v>50130</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -3970,10 +3981,10 @@
         <v>51110</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -3981,10 +3992,10 @@
         <v>51130</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -3992,10 +4003,10 @@
         <v>51150</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -4003,10 +4014,10 @@
         <v>51170</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -4014,10 +4025,10 @@
         <v>51190</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -4025,10 +4036,10 @@
         <v>51210</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -4036,10 +4047,10 @@
         <v>51230</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -4047,10 +4058,10 @@
         <v>51720</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -4058,10 +4069,10 @@
         <v>51730</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -4069,10 +4080,10 @@
         <v>51750</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -4080,10 +4091,10 @@
         <v>51760</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -4091,10 +4102,10 @@
         <v>51770</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -4102,10 +4113,10 @@
         <v>51780</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -4113,10 +4124,10 @@
         <v>51790</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -4124,10 +4135,10 @@
         <v>51800</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -4135,10 +4146,10 @@
         <v>51810</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -4146,10 +4157,10 @@
         <v>51820</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -4157,10 +4168,10 @@
         <v>51830</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
